--- a/Enrollment DB/005. Table Inserts/za.xlsx
+++ b/Enrollment DB/005. Table Inserts/za.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Pietermaritzburg</t>
   </si>
   <si>
-    <t xml:space="preserve">KwaZulu-Natal</t>
+    <t xml:space="preserve">KwaZulu Natal</t>
   </si>
   <si>
     <t xml:space="preserve">Pretoria</t>
@@ -354,15 +354,15 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
